--- a/src/main/resources/filedatestare/excelFile_WithEmptyListAfterValidation.xlsx
+++ b/src/main/resources/filedatestare/excelFile_WithEmptyListAfterValidation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.vergine\Desktop\filedatestare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\corso_its\projects\Fincons-Employees-BE\src\main\resources\filedatestare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDFA2CAD-F2B7-41B8-8B29-C7E657BB4BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658977B-28EC-425E-B627-822542463890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27192" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{1B7CC18F-ED34-407C-8F65-7EC2BE0F0B8A}"/>
+    <workbookView xWindow="24924" yWindow="3516" windowWidth="17280" windowHeight="8880" xr2:uid="{1B7CC18F-ED34-407C-8F65-7EC2BE0F0B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -537,7 +537,7 @@
         <v>45580</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
